--- a/output/LOSS.xlsx
+++ b/output/LOSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\computional imaging\my_pbrt\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2EC59A-B1E2-4692-ABBF-1A640F998707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E23FBC-23B1-43E6-96F3-95786FBD0F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="1188" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>PBES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v2e(60fps video input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rotate_360_high</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,41 @@
   </si>
   <si>
     <t>trans_1mps_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chamfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0077(13s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2059.6(1161s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.48034(23.73s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4736(306s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.41406(21s)</t>
+  </si>
+  <si>
+    <t>ESIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3512.7(172.3s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,9 +433,13 @@
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -415,37 +450,88 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/LOSS.xlsx
+++ b/output/LOSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\computional imaging\my_pbrt\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E23FBC-23B1-43E6-96F3-95786FBD0F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A7B57-70F6-4B7B-B324-B7BF8B2CCD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="1188" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>PBES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>3512.7(172.3s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.390407019281106(3s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448(25s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.56（2.8s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>482(27s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.08（6s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>589(22s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,8 +522,26 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" t="s">
         <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/output/LOSS.xlsx
+++ b/output/LOSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\computional imaging\my_pbrt\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A7B57-70F6-4B7B-B324-B7BF8B2CCD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347104E-E82B-458B-9007-A3898FE31EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>PBES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,26 @@
   </si>
   <si>
     <t>589(22s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.45（4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742（35）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何chamfer于kernel犯冲：事件数量！Kernel方法受事件数量影响严重，要保证输入的事件数量尽量一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7022（5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1965（49s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,8 +568,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,6 +606,11 @@
       </c>
       <c r="F7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/LOSS.xlsx
+++ b/output/LOSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\computional imaging\my_pbrt\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347104E-E82B-458B-9007-A3898FE31EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C8FEDC-C0F4-4CB6-A31B-F212152A4694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>PBES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,19 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>742（35）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为何chamfer于kernel犯冲：事件数量！Kernel方法受事件数量影响严重，要保证输入的事件数量尽量一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.7022（5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1965（49s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +459,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,16 +564,16 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+      <c r="G4">
+        <v>109.2</v>
+      </c>
+      <c r="H4">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -591,6 +583,9 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="G5">
+        <v>742</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -610,7 +605,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
